--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>630015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>华商大盘量化精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630015</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商大盘量化精选混合</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>630015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>华商大盘量化精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>630015</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商大盘量化精选混合</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -828,15 +948,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.92</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2345,2552 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4773,7 +4774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4784,17 +4785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4804,14 +4825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.74</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4820,14 +4863,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -4836,14 +4901,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4852,14 +4939,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4868,14 +4977,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.15</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4884,13 +5015,3518 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>32.31</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>18.74</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -600,6 +617,3132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014724</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4218,7 +7361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6849,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7247,7 +10390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7683,7 +10826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7891,7 +11034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8327,7 +11470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/600873-梅花生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>28.23</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>32.31</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>18.74</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -616,7 +633,2089 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004413</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,7 +5841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7361,7 +9460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9992,7 +12091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10390,7 +12489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10826,7 +12925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11034,7 +13133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11468,212 +13567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商大盘量化精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1490</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>